--- a/medicine/Œil et vue/Syndrome_d'Alström/Syndrome_d'Alström.xlsx
+++ b/medicine/Œil et vue/Syndrome_d'Alström/Syndrome_d'Alström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alstr%C3%B6m</t>
+          <t>Syndrome_d'Alström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le syndrome d'Alström est caractérisé par une rétinite pigmentaire à cônes, une obésité, une surdité de transmission progressive, une cardiomyopathie dilatée, un diabète non insulino-dépendant et parfois un retard mental[réf. nécessaire]. Il est dû à une mutation sur le gène ALMS1[1].
+Le syndrome d'Alström est caractérisé par une rétinite pigmentaire à cônes, une obésité, une surdité de transmission progressive, une cardiomyopathie dilatée, un diabète non insulino-dépendant et parfois un retard mental[réf. nécessaire]. Il est dû à une mutation sur le gène ALMS1.
 Les signes de la maladie sont très variables même dans une famille atteinte. La rétinite pigmentaire débute avant 15 mois de vie et est progressive avec photophobie, nystagmus. Elle est particulière car elle commence par la perte de la vision centrale. À 20 ans, les personnes ont une cécité sans perception de lumière.
 Les enfants naissent avec un poids normal mais deviennent obèses avant un an. L'obésité atteint surtout le tronc.
 La perte de l'audition est progressive et atteint 70 % des enfants avant 10 ans. La perte de l'audition est comprise entre 40 et 70 décibels. 
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alstr%C3%B6m</t>
+          <t>Syndrome_d'Alström</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,10 +531,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 203800 [1]
-(en) Ian Hopkinson, Jan D Marshall, Richard B Paisey, Catherine Carey, Seamus Macdermott, Alström Syndrome In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 203800 
+(en) Ian Hopkinson, Jan D Marshall, Richard B Paisey, Catherine Carey, Seamus Macdermott, Alström Syndrome In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. .
 ↑ Collin GB, Marshall JD, Ikeda A et al. Mutations in ALMS1 cause obesity, type 2 diabetes and neurosensory degeneration in Alström syndrome, Nat Genet, 2002;31:74–78
 </t>
         </is>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alstr%C3%B6m</t>
+          <t>Syndrome_d'Alström</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Page spécifique  sur Orphanet
  Portail de la médecine   Portail de l’œil et de la vue   Portail du handicap                   </t>
